--- a/guide/sdr-decedent-FuneralFacility-extension.xlsx
+++ b/guide/sdr-decedent-FuneralFacility-extension.xlsx
@@ -197,10 +197,10 @@
     <t>The name of a facility or institution</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-Address-extension]]} {[]}
+    <t>postaladdress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-PostalAddress-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -395,7 +395,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
